--- a/data/original/exercises/020-qualtrics/030-030-010-ex1.xlsx
+++ b/data/original/exercises/020-qualtrics/030-030-010-ex1.xlsx
@@ -15,6 +15,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd HH:mm:ss UTC"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -52,11 +55,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -351,11 +355,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="20.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" style="2" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
@@ -406,6 +415,211 @@
       <c r="J1" s="1" t="inlineStr">
         <is>
           <t>q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>44523.79604166667</v>
+      </c>
+      <c r="C2" s="2">
+        <v>44523.80056712963</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>IP Address</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>390</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>44523.80056712963</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>4lianj</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>44523.81170138888</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44523.81467592593</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>IP Address</t>
+        </is>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>256</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>44523.81467592593</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1bimil</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ebola_tidy &lt;- ebola %&gt;% 
+pivot_longer(`289`:last_col(), names_to = "day", values_to = "cases") %&gt;% 
+drop_na()</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>44523.81152777778</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44523.81159722222</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>IP Address</t>
+        </is>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>44523.87939814814</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>4lianj</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>44523.10045138889</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44523.18498842593</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+      <c r="F5">
+        <v>7303</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>44523.87939814814</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2nesch</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>44518.79752314815</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44518.81755787037</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>IP Address</t>
+        </is>
+      </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
+      <c r="F6">
+        <v>1731</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>44523.8794212963</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1sh110</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>44523.81259259259</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44523.82421296297</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+      <c r="F7">
+        <v>1004</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>44523.8794212963</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1lacat</t>
         </is>
       </c>
     </row>
